--- a/팀원자료/사이트맵/총 사이트맵.xlsx
+++ b/팀원자료/사이트맵/총 사이트맵.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김갈매\Desktop\파이널 문서\팀원자료\사이트맵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EF5C3A-5ED2-453D-AE43-9660FC2E8A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC10132-6D9B-4ADD-A6BA-207BE8CA6B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메인화면" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -524,6 +524,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -534,7 +571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -595,20 +632,31 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2055,48 +2103,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.69921875" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" customWidth="1"/>
-    <col min="11" max="11" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="E2" s="22" t="s">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I4" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I5" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C9" s="10" t="s">
         <v>53</v>
       </c>
@@ -2106,7 +2154,7 @@
       <c r="E9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="29" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -2115,38 +2163,39 @@
       <c r="H9" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="M9" s="30"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="28" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -2156,11 +2205,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="E12" s="4" t="s">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E12" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -2170,7 +2219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E13" s="4" t="s">
         <v>65</v>
       </c>
@@ -2181,7 +2230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2189,32 +2238,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G15" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G16" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="5" t="s">
         <v>11</v>
       </c>
@@ -2233,49 +2282,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F21F72-39C9-44BD-8A52-B7A20FB6CA3A}">
   <dimension ref="C1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.796875" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" customWidth="1"/>
-    <col min="8" max="8" width="22.3984375" customWidth="1"/>
+    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" customWidth="1"/>
-    <col min="11" max="11" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.3984375" customWidth="1"/>
-    <col min="14" max="14" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:14" x14ac:dyDescent="0.3">
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
       <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="12" t="s">
         <v>18</v>
       </c>
@@ -2309,14 +2358,14 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C8" s="25" t="s">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="14" t="s">
@@ -2337,14 +2386,14 @@
       <c r="K8" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="22" t="s">
         <v>46</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C9" s="25" t="s">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -2365,13 +2414,13 @@
       <c r="K9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="22" t="s">
         <v>47</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -2385,13 +2434,13 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="22" t="s">
         <v>48</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2403,13 +2452,13 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="22" t="s">
         <v>49</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -2421,13 +2470,13 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="22" t="s">
         <v>50</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -2437,13 +2486,13 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="22" t="s">
         <v>54</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2454,7 +2503,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="F15" s="8"/>
       <c r="G15" s="6" t="s">
         <v>26</v>
@@ -2464,7 +2513,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="F16" s="8"/>
       <c r="G16" s="2"/>
       <c r="H16" s="8"/>
@@ -2472,7 +2521,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:16" x14ac:dyDescent="0.3">
       <c r="F17" s="8"/>
       <c r="G17" s="2"/>
       <c r="H17" s="8"/>
@@ -2480,7 +2529,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:16" x14ac:dyDescent="0.3">
       <c r="F18" s="8"/>
       <c r="G18" s="2"/>
       <c r="H18" s="8"/>
@@ -2488,7 +2537,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E20" s="3"/>
       <c r="F20" s="16" t="s">
         <v>57</v>
@@ -2500,7 +2549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E21" s="3"/>
       <c r="F21" s="17" t="s">
         <v>35</v>
@@ -2512,7 +2561,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E22" s="3"/>
       <c r="F22" s="17" t="s">
         <v>36</v>
@@ -2524,7 +2573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E23" s="3"/>
       <c r="F23" s="7"/>
       <c r="G23" s="15" t="s">
@@ -2532,24 +2581,24 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.3">
       <c r="F24" s="7"/>
       <c r="G24" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="5:16" x14ac:dyDescent="0.3">
       <c r="F25" s="8"/>
       <c r="G25" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="5:16" x14ac:dyDescent="0.3">
       <c r="P26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.3">
       <c r="O27" t="s">
         <v>33</v>
       </c>
@@ -2557,7 +2606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.3">
       <c r="O28" t="s">
         <v>28</v>
       </c>
@@ -2565,7 +2614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="5:16" x14ac:dyDescent="0.3">
       <c r="O29" t="s">
         <v>32</v>
       </c>
@@ -2573,16 +2622,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" s="3"/>
     </row>
   </sheetData>

--- a/팀원자료/사이트맵/총 사이트맵.xlsx
+++ b/팀원자료/사이트맵/총 사이트맵.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김갈매\Desktop\파이널 문서\팀원자료\사이트맵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC10132-6D9B-4ADD-A6BA-207BE8CA6B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AC8F50-6F2D-43D4-9844-8CC93DCCECFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메인화면" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>마이페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>극장 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -379,6 +375,26 @@
   </si>
   <si>
     <t>쿠폰 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰 사용현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극장 상영 스케줄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -561,6 +577,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -571,7 +600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -644,9 +673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -658,6 +684,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2103,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2122,20 +2152,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E2" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I4" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I6" s="32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.3">
@@ -2149,12 +2184,12 @@
         <v>53</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -2163,22 +2198,22 @@
       <c r="H9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="30"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -2190,10 +2225,10 @@
         <v>56</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>45</v>
@@ -2206,11 +2241,11 @@
       </c>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E12" s="27" t="s">
-        <v>64</v>
+      <c r="E12" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>3</v>
@@ -2221,7 +2256,7 @@
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>4</v>
@@ -2274,7 +2309,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2282,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F21F72-39C9-44BD-8A52-B7A20FB6CA3A}">
   <dimension ref="C1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2295,7 +2331,7 @@
     <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.625" customWidth="1"/>
     <col min="8" max="8" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
@@ -2344,7 +2380,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>20</v>
@@ -2353,7 +2389,7 @@
         <v>19</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -2378,13 +2414,13 @@
         <v>14</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L8" s="22" t="s">
         <v>46</v>
@@ -2397,7 +2433,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -2405,12 +2441,14 @@
         <v>40</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="K9" s="14" t="s">
         <v>27</v>
       </c>
@@ -2429,9 +2467,11 @@
         <v>41</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="22" t="s">
@@ -2447,7 +2487,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -2558,7 +2598,7 @@
         <v>47</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.3">
